--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3775.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3775.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.540101855369198</v>
+        <v>0.4488961696624756</v>
       </c>
       <c r="B1">
-        <v>2.744256662215903</v>
+        <v>3.523543119430542</v>
       </c>
       <c r="C1">
-        <v>3.157183264954259</v>
+        <v>4.117266654968262</v>
       </c>
       <c r="D1">
-        <v>3.715939675932829</v>
+        <v>1.359105706214905</v>
       </c>
       <c r="E1">
-        <v>1.886777767366765</v>
+        <v>0.899681568145752</v>
       </c>
     </row>
   </sheetData>
